--- a/KryptoImGui/texts/hill/texts.xlsx
+++ b/KryptoImGui/texts/hill/texts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juro\source\repos\KryptoImGui\KryptoImGui\texts\hill decoded\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juro\source\repos\KryptoImGui\KryptoImGui\texts\hill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3105004-E6E7-4A8A-A01A-564ADE2BE617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF9C975-73A1-45C3-9972-ED6B79B3512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEXT 1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="43">
   <si>
     <t>k11</t>
   </si>
@@ -301,12 +301,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,6 +308,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dobrá" xfId="1" builtinId="26"/>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,16 +788,16 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -814,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:I7" si="0">CODE(G2)-65</f>
+        <f t="shared" ref="G7:H7" si="0">CODE(G2)-65</f>
         <v>7</v>
       </c>
       <c r="H7" s="1">
@@ -833,43 +833,43 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <f t="shared" ref="O7:W7" si="2">CODE(O2)-65</f>
         <v>7</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="4">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="4">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="4">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ref="F8:I8" si="3">CODE(F3)-65</f>
+        <f t="shared" ref="F8:H8" si="3">CODE(F3)-65</f>
         <v>17</v>
       </c>
       <c r="G8" s="1">
@@ -897,7 +897,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:N8" si="4">CODE(K3)-65</f>
+        <f t="shared" ref="K8:M8" si="4">CODE(K3)-65</f>
         <v>0</v>
       </c>
       <c r="L8" s="1">
@@ -908,43 +908,43 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="4">
         <f t="shared" ref="N8:W8" si="5">CODE(N3)-65</f>
         <v>5</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="4">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="4">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="4">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="V8" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="6">
+      <c r="V8" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:I9" si="6">CODE(F4)-65</f>
+        <f t="shared" ref="F9:H9" si="6">CODE(F4)-65</f>
         <v>0</v>
       </c>
       <c r="G9" s="1">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" ref="K9:N9" si="7">CODE(K4)-65</f>
+        <f t="shared" ref="K9:M9" si="7">CODE(K4)-65</f>
         <v>11</v>
       </c>
       <c r="L9" s="1">
@@ -983,43 +983,43 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="4">
         <f t="shared" ref="N9:W9" si="8">CODE(N4)-65</f>
         <v>20</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="4">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="4">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="4">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="4">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="4">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="4">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="4">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="4">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
@@ -1031,25 +1031,25 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M14" s="8"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1069,14 +1069,14 @@
         <f>MOD(E15,26)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15">
         <f>MOD(F15*G15,26)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="6"/>
       <c r="N15">
         <v>14</v>
       </c>
@@ -1094,7 +1094,7 @@
         <f>MOD(R15,26)</f>
         <v>15</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="2">
         <v>7</v>
       </c>
       <c r="U15">
@@ -1112,7 +1112,7 @@
       <c r="C16">
         <v>17</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="6"/>
       <c r="N16">
         <v>8</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="6"/>
       <c r="N17">
         <v>13</v>
       </c>
@@ -1144,20 +1144,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="2" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="array" ref="A19:C21">MINVERSE(A15:C17)</f>
         <v>-5.8823529411764705E-2</v>
@@ -1168,7 +1168,7 @@
       <c r="C19">
         <v>-0.13879277201076506</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="6"/>
       <c r="N19">
         <f t="array" ref="N19:P21">MINVERSE(N15:P17)</f>
         <v>-0.14462081128747797</v>
@@ -1180,7 +1180,7 @@
         <v>0.18165784832451501</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="C20">
         <v>0.1111111111111111</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="6"/>
       <c r="N20">
         <v>1.7636684303350986E-3</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>-3.8800705467372132E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5.8823529411764705E-2</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="C21">
         <v>-1.8069973087274125E-2</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="6"/>
       <c r="N21">
         <v>0.12463256907701353</v>
       </c>
@@ -1222,20 +1222,20 @@
         <v>-7.524985302763082E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="2" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="array" ref="A23:C25">E15*A19:C21</f>
         <v>-153</v>
@@ -1246,7 +1246,7 @@
       <c r="C23">
         <v>-360.99999999999994</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="6"/>
       <c r="N23">
         <f t="array" ref="N23:P25">R15*N19:P21</f>
         <v>246.00000000000003</v>
@@ -1258,7 +1258,7 @@
         <v>-309.00000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="C24">
         <v>289</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="6"/>
       <c r="N24">
         <v>-3.0000000000000027</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>153</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="C25">
         <v>-47</v>
       </c>
-      <c r="M25" s="8"/>
+      <c r="M25" s="6"/>
       <c r="N25">
         <v>-212.00000000000003</v>
       </c>
@@ -1300,20 +1300,20 @@
         <v>128.00000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="2" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="array" ref="A27:C29">ROUND(A23:C25,0)</f>
         <v>-153</v>
@@ -1324,7 +1324,7 @@
       <c r="C27">
         <v>-361</v>
       </c>
-      <c r="M27" s="8"/>
+      <c r="M27" s="6"/>
       <c r="N27">
         <f t="array" ref="N27:P29">ROUND(N23:P25,0)</f>
         <v>246</v>
@@ -1335,8 +1335,11 @@
       <c r="P27">
         <v>-309</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1346,7 +1349,7 @@
       <c r="C28">
         <v>289</v>
       </c>
-      <c r="M28" s="8"/>
+      <c r="M28" s="6"/>
       <c r="N28">
         <v>-3</v>
       </c>
@@ -1356,8 +1359,11 @@
       <c r="P28">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>153</v>
       </c>
@@ -1367,7 +1373,7 @@
       <c r="C29">
         <v>-47</v>
       </c>
-      <c r="M29" s="8"/>
+      <c r="M29" s="6"/>
       <c r="N29">
         <v>-212</v>
       </c>
@@ -1377,21 +1383,24 @@
       <c r="P29">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="2" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="array" ref="A31:C33">MOD(A27:C29*$G$15,26)</f>
         <v>3</v>
@@ -1412,7 +1421,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="M31" s="8"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="1">
         <f t="array" ref="N31:P33">MOD(N27:P29*$T$15,26)</f>
         <v>6</v>
@@ -1423,8 +1432,18 @@
       <c r="P31" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31" cm="1">
+        <f t="array" ref="R31:T33">MOD(MMULT(N31:P33,N15:P17),26)</f>
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1443,7 +1462,7 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="M32" s="8"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="1">
         <v>5</v>
       </c>
@@ -1452,6 +1471,15 @@
       </c>
       <c r="P32" s="1">
         <v>20</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -1473,7 +1501,7 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="M33" s="8"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="1">
         <v>24</v>
       </c>
@@ -1483,29 +1511,38 @@
       <c r="P33" s="1">
         <v>12</v>
       </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M35" s="8"/>
+      <c r="M35" s="6"/>
       <c r="N35" cm="1">
         <f t="array" ref="N35:Z37">MOD(MMULT(N31:P33,K7:W9),26)</f>
         <v>3</v>
@@ -1548,14 +1585,14 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <f t="array" ref="B36:D38">MOD(MMULT(K7:M9,A31:C33),26)</f>
         <v>14</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>19</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>24</v>
       </c>
       <c r="F36">
@@ -1578,7 +1615,7 @@
       <c r="L36">
         <v>5</v>
       </c>
-      <c r="M36" s="8"/>
+      <c r="M36" s="6"/>
       <c r="N36">
         <v>17</v>
       </c>
@@ -1620,13 +1657,13 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>8</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>20</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>9</v>
       </c>
       <c r="F37">
@@ -1647,7 +1684,7 @@
       <c r="L37">
         <v>6</v>
       </c>
-      <c r="M37" s="8"/>
+      <c r="M37" s="6"/>
       <c r="N37">
         <v>0</v>
       </c>
@@ -1689,13 +1726,13 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>13</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>6</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>15</v>
       </c>
       <c r="F38">
@@ -1716,7 +1753,7 @@
       <c r="L38">
         <v>24</v>
       </c>
-      <c r="M38" s="8"/>
+      <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N39" t="str">
@@ -1773,15 +1810,15 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
       <c r="N40" t="str">
         <f t="shared" ref="N40:Z41" si="10">CHAR(N36+65)</f>
         <v>R</v>
@@ -1836,15 +1873,15 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="N41" t="str">
         <f t="shared" si="10"/>
         <v>A</v>
@@ -1900,17 +1937,17 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A34:N34"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="N30:P30"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2095,16 +2132,16 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -2121,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:I7" si="0">CODE(G2)-65</f>
+        <f t="shared" ref="G7:H7" si="0">CODE(G2)-65</f>
         <v>7</v>
       </c>
       <c r="H7" s="1">
@@ -2133,47 +2170,47 @@
         <v>15</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:W9" si="1">CODE(L2)-65</f>
+        <f t="shared" ref="L7:U9" si="1">CODE(L2)-65</f>
         <v>14</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R7" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
+      <c r="R7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -2186,7 +2223,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ref="F8:I9" si="2">CODE(F3)-65</f>
+        <f t="shared" ref="F8:H9" si="2">CODE(F3)-65</f>
         <v>17</v>
       </c>
       <c r="G8" s="1">
@@ -2198,7 +2235,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:N9" si="3">CODE(K3)-65</f>
+        <f t="shared" ref="K8:M9" si="3">CODE(K3)-65</f>
         <v>2</v>
       </c>
       <c r="L8" s="1">
@@ -2209,40 +2246,40 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -2278,40 +2315,40 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="4">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="R9" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
+      <c r="R9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F11">
@@ -2320,25 +2357,25 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M14" s="8"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2358,14 +2395,14 @@
         <f>MOD(E15,26)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15">
         <f>MOD(F15*G15,26)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="6"/>
       <c r="N15">
         <v>3</v>
       </c>
@@ -2383,7 +2420,7 @@
         <f>MOD(R15,26)</f>
         <v>3</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="2">
         <v>9</v>
       </c>
       <c r="U15">
@@ -2401,7 +2438,7 @@
       <c r="C16">
         <v>17</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="6"/>
       <c r="N16">
         <v>5</v>
       </c>
@@ -2422,7 +2459,7 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="6"/>
       <c r="N17">
         <v>25</v>
       </c>
@@ -2434,17 +2471,17 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="2" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2457,7 +2494,7 @@
       <c r="C19">
         <v>-0.13879277201076506</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="6"/>
       <c r="N19">
         <f t="array" ref="N19:P21">MINVERSE(N15:P17)</f>
         <v>-0.15154349859681948</v>
@@ -2479,7 +2516,7 @@
       <c r="C20">
         <v>0.1111111111111111</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="6"/>
       <c r="N20">
         <v>0.205799812909261</v>
       </c>
@@ -2500,7 +2537,7 @@
       <c r="C21">
         <v>-1.8069973087274125E-2</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="6"/>
       <c r="N21">
         <v>-0.19176800748362952</v>
       </c>
@@ -2512,17 +2549,17 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="2" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -2535,7 +2572,7 @@
       <c r="C23">
         <v>-360.99999999999994</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="6"/>
       <c r="N23">
         <f t="array" ref="N23:P25">R15*N19:P21</f>
         <v>-162.00000000000003</v>
@@ -2557,7 +2594,7 @@
       <c r="C24">
         <v>289</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="6"/>
       <c r="N24">
         <v>220</v>
       </c>
@@ -2578,7 +2615,7 @@
       <c r="C25">
         <v>-47</v>
       </c>
-      <c r="M25" s="8"/>
+      <c r="M25" s="6"/>
       <c r="N25">
         <v>-204.99999999999994</v>
       </c>
@@ -2590,17 +2627,17 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="2" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2613,7 +2650,7 @@
       <c r="C27">
         <v>-361</v>
       </c>
-      <c r="M27" s="8"/>
+      <c r="M27" s="6"/>
       <c r="N27">
         <f t="array" ref="N27:P29">ROUND(N23:P25,0)</f>
         <v>-162</v>
@@ -2635,7 +2672,7 @@
       <c r="C28">
         <v>289</v>
       </c>
-      <c r="M28" s="8"/>
+      <c r="M28" s="6"/>
       <c r="N28">
         <v>220</v>
       </c>
@@ -2656,7 +2693,7 @@
       <c r="C29">
         <v>-47</v>
       </c>
-      <c r="M29" s="8"/>
+      <c r="M29" s="6"/>
       <c r="N29">
         <v>-205</v>
       </c>
@@ -2668,17 +2705,17 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="2" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2701,7 +2738,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="M31" s="8"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="1">
         <f t="array" ref="N31:P33">MOD(N27:P29*$T$15,26)</f>
         <v>24</v>
@@ -2732,7 +2769,7 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="M32" s="8"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="1">
         <v>4</v>
       </c>
@@ -2762,7 +2799,7 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="M33" s="8"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="1">
         <v>1</v>
       </c>
@@ -2774,27 +2811,27 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M35" s="8"/>
+      <c r="M35" s="6"/>
       <c r="N35" cm="1">
         <f t="array" ref="N35:X37">MOD(MMULT(N31:P33,K7:U9),26)</f>
         <v>3</v>
@@ -2831,14 +2868,14 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <f t="array" ref="B36:D38">MOD(MMULT(K7:M9,A31:C33),26)</f>
         <v>3</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>8</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="F36">
@@ -2861,7 +2898,7 @@
       <c r="L36">
         <v>14</v>
       </c>
-      <c r="M36" s="8"/>
+      <c r="M36" s="6"/>
       <c r="N36">
         <v>17</v>
       </c>
@@ -2897,13 +2934,13 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>5</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>13</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>10</v>
       </c>
       <c r="F37">
@@ -2924,7 +2961,7 @@
       <c r="L37">
         <v>9</v>
       </c>
-      <c r="M37" s="8"/>
+      <c r="M37" s="6"/>
       <c r="N37">
         <v>0</v>
       </c>
@@ -2960,13 +2997,13 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>25</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>24</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>6</v>
       </c>
       <c r="F38">
@@ -2987,7 +3024,7 @@
       <c r="L38">
         <v>24</v>
       </c>
-      <c r="M38" s="8"/>
+      <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N39" t="str">
@@ -2995,7 +3032,7 @@
         <v>D</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" ref="O39:Z39" si="4">CHAR(O35+65)</f>
+        <f t="shared" ref="O39:X39" si="4">CHAR(O35+65)</f>
         <v>H</v>
       </c>
       <c r="P39" t="str">
@@ -3036,17 +3073,17 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
       <c r="N40" t="str">
-        <f t="shared" ref="N40:Z41" si="5">CHAR(N36+65)</f>
+        <f t="shared" ref="N40:X41" si="5">CHAR(N36+65)</f>
         <v>R</v>
       </c>
       <c r="O40" t="str">
@@ -3091,15 +3128,15 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="N41" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
@@ -3147,18 +3184,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="A34:N34"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3168,8 +3205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACEA1D3-FCD2-4E6A-95F2-6AA8788B6043}">
   <dimension ref="A2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,16 +3369,16 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -3358,7 +3395,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:I7" si="0">CODE(G2)-65</f>
+        <f t="shared" ref="G7:H7" si="0">CODE(G2)-65</f>
         <v>7</v>
       </c>
       <c r="H7" s="1">
@@ -3370,44 +3407,44 @@
         <v>13</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:W9" si="1">CODE(L2)-65</f>
+        <f t="shared" ref="L7:T9" si="1">CODE(L2)-65</f>
         <v>18</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -3420,7 +3457,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ref="F8:I9" si="2">CODE(F3)-65</f>
+        <f t="shared" ref="F8:H9" si="2">CODE(F3)-65</f>
         <v>17</v>
       </c>
       <c r="G8" s="1">
@@ -3432,7 +3469,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ref="K8:N9" si="3">CODE(K3)-65</f>
+        <f t="shared" ref="K8:M9" si="3">CODE(K3)-65</f>
         <v>12</v>
       </c>
       <c r="L8" s="1">
@@ -3443,37 +3480,37 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="4">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="4">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -3509,37 +3546,37 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="4">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F11">
@@ -3548,25 +3585,25 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M14" s="8"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3586,14 +3623,14 @@
         <f>MOD(E15,26)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15">
         <f>MOD(F15*G15,26)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="6"/>
       <c r="N15">
         <v>24</v>
       </c>
@@ -3611,7 +3648,7 @@
         <f>MOD(R15,26)</f>
         <v>9.0000000000002274</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="2">
         <v>3</v>
       </c>
       <c r="U15">
@@ -3629,7 +3666,7 @@
       <c r="C16">
         <v>17</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="6"/>
       <c r="N16">
         <v>9</v>
       </c>
@@ -3650,7 +3687,7 @@
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="6"/>
       <c r="N17">
         <v>16</v>
       </c>
@@ -3662,17 +3699,17 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="2" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3685,7 +3722,7 @@
       <c r="C19">
         <v>-0.13879277201076506</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="6"/>
       <c r="N19">
         <f t="array" ref="N19:P21">MINVERSE(N15:P17)</f>
         <v>6.7770305225038796E-2</v>
@@ -3707,7 +3744,7 @@
       <c r="C20">
         <v>0.1111111111111111</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="6"/>
       <c r="N20">
         <v>5.6389032591826163E-2</v>
       </c>
@@ -3728,7 +3765,7 @@
       <c r="C21">
         <v>-1.8069973087274125E-2</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="6"/>
       <c r="N21">
         <v>-0.12933264355923432</v>
       </c>
@@ -3740,17 +3777,17 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="2" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3763,7 +3800,7 @@
       <c r="C23">
         <v>-360.99999999999994</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="6"/>
       <c r="N23">
         <f t="array" ref="N23:P25">R15*N19:P21</f>
         <v>131</v>
@@ -3785,7 +3822,7 @@
       <c r="C24">
         <v>289</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="6"/>
       <c r="N24">
         <v>108.99999999999999</v>
       </c>
@@ -3806,7 +3843,7 @@
       <c r="C25">
         <v>-47</v>
       </c>
-      <c r="M25" s="8"/>
+      <c r="M25" s="6"/>
       <c r="N25">
         <v>-249.99999999999997</v>
       </c>
@@ -3818,17 +3855,17 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="2" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -3841,7 +3878,7 @@
       <c r="C27">
         <v>-361</v>
       </c>
-      <c r="M27" s="8"/>
+      <c r="M27" s="6"/>
       <c r="N27">
         <f t="array" ref="N27:P29">ROUND(N23:P25,0)</f>
         <v>131</v>
@@ -3863,7 +3900,7 @@
       <c r="C28">
         <v>289</v>
       </c>
-      <c r="M28" s="8"/>
+      <c r="M28" s="6"/>
       <c r="N28">
         <v>109</v>
       </c>
@@ -3884,7 +3921,7 @@
       <c r="C29">
         <v>-47</v>
       </c>
-      <c r="M29" s="8"/>
+      <c r="M29" s="6"/>
       <c r="N29">
         <v>-250</v>
       </c>
@@ -3896,17 +3933,17 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="2" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -3929,7 +3966,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="M31" s="8"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="1">
         <f t="array" ref="N31:P33">MOD(N27:P29*$T$15,26)</f>
         <v>3</v>
@@ -3960,7 +3997,7 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="M32" s="8"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="1">
         <v>15</v>
       </c>
@@ -3990,7 +4027,7 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="M33" s="8"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="1">
         <v>4</v>
       </c>
@@ -4002,27 +4039,27 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M35" s="8"/>
+      <c r="M35" s="6"/>
       <c r="N35" cm="1">
         <f t="array" ref="N35:W37">MOD(MMULT(N31:P33,K7:T9),26)</f>
         <v>3</v>
@@ -4056,14 +4093,14 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <f t="array" ref="B36:D38">MOD(MMULT(K7:M9,A31:C33),26)</f>
         <v>24</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>21</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>14</v>
       </c>
       <c r="F36">
@@ -4086,7 +4123,7 @@
       <c r="L36">
         <v>5</v>
       </c>
-      <c r="M36" s="8"/>
+      <c r="M36" s="6"/>
       <c r="N36">
         <v>17</v>
       </c>
@@ -4119,13 +4156,13 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>9</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>19</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>13</v>
       </c>
       <c r="F37">
@@ -4146,7 +4183,7 @@
       <c r="L37">
         <v>9</v>
       </c>
-      <c r="M37" s="8"/>
+      <c r="M37" s="6"/>
       <c r="N37">
         <v>0</v>
       </c>
@@ -4179,13 +4216,13 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>16</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>6</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>11</v>
       </c>
       <c r="F38">
@@ -4206,7 +4243,7 @@
       <c r="L38">
         <v>6</v>
       </c>
-      <c r="M38" s="8"/>
+      <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N39" t="str">
@@ -4214,7 +4251,7 @@
         <v>D</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" ref="O39:Z39" si="4">CHAR(O35+65)</f>
+        <f t="shared" ref="O39:W39" si="4">CHAR(O35+65)</f>
         <v>H</v>
       </c>
       <c r="P39" t="str">
@@ -4251,17 +4288,17 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
       <c r="N40" t="str">
-        <f t="shared" ref="N40:Z41" si="5">CHAR(N36+65)</f>
+        <f t="shared" ref="N40:W41" si="5">CHAR(N36+65)</f>
         <v>R</v>
       </c>
       <c r="O40" t="str">
@@ -4302,15 +4339,15 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="N41" t="str">
         <f t="shared" si="5"/>
         <v>A</v>
@@ -4354,18 +4391,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="N26:P26"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="A34:N34"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
